--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>131.998857719471</v>
+        <v>134.647784</v>
       </c>
       <c r="H2">
-        <v>131.998857719471</v>
+        <v>403.943352</v>
       </c>
       <c r="I2">
-        <v>0.2657752782324992</v>
+        <v>0.2617460968718581</v>
       </c>
       <c r="J2">
-        <v>0.2657752782324992</v>
+        <v>0.2617460968718581</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N2">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O2">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P2">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q2">
-        <v>5836.519431204832</v>
+        <v>6406.401977850586</v>
       </c>
       <c r="R2">
-        <v>5836.519431204832</v>
+        <v>57657.61780065527</v>
       </c>
       <c r="S2">
-        <v>0.1155943622957438</v>
+        <v>0.1178350704159812</v>
       </c>
       <c r="T2">
-        <v>0.1155943622957438</v>
+        <v>0.1178350704159812</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>131.998857719471</v>
+        <v>134.647784</v>
       </c>
       <c r="H3">
-        <v>131.998857719471</v>
+        <v>403.943352</v>
       </c>
       <c r="I3">
-        <v>0.2657752782324992</v>
+        <v>0.2617460968718581</v>
       </c>
       <c r="J3">
-        <v>0.2657752782324992</v>
+        <v>0.2617460968718581</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N3">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O3">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P3">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q3">
-        <v>1293.666603711421</v>
+        <v>1323.550509049021</v>
       </c>
       <c r="R3">
-        <v>1293.666603711421</v>
+        <v>11911.95458144119</v>
       </c>
       <c r="S3">
-        <v>0.02562153143529461</v>
+        <v>0.02434450226072539</v>
       </c>
       <c r="T3">
-        <v>0.02562153143529461</v>
+        <v>0.02434450226072539</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>131.998857719471</v>
+        <v>134.647784</v>
       </c>
       <c r="H4">
-        <v>131.998857719471</v>
+        <v>403.943352</v>
       </c>
       <c r="I4">
-        <v>0.2657752782324992</v>
+        <v>0.2617460968718581</v>
       </c>
       <c r="J4">
-        <v>0.2657752782324992</v>
+        <v>0.2617460968718581</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N4">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O4">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P4">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q4">
-        <v>1381.032097774608</v>
+        <v>1472.193628600576</v>
       </c>
       <c r="R4">
-        <v>1381.032097774608</v>
+        <v>13249.74265740518</v>
       </c>
       <c r="S4">
-        <v>0.02735183640419316</v>
+        <v>0.02707854432049091</v>
       </c>
       <c r="T4">
-        <v>0.02735183640419316</v>
+        <v>0.02707854432049091</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>131.998857719471</v>
+        <v>134.647784</v>
       </c>
       <c r="H5">
-        <v>131.998857719471</v>
+        <v>403.943352</v>
       </c>
       <c r="I5">
-        <v>0.2657752782324992</v>
+        <v>0.2617460968718581</v>
       </c>
       <c r="J5">
-        <v>0.2657752782324992</v>
+        <v>0.2617460968718581</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.1832287373793</v>
+        <v>37.34441866666666</v>
       </c>
       <c r="N5">
-        <v>37.1832287373793</v>
+        <v>112.033256</v>
       </c>
       <c r="O5">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="P5">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="Q5">
-        <v>4908.143719655876</v>
+        <v>5028.343218234901</v>
       </c>
       <c r="R5">
-        <v>4908.143719655876</v>
+        <v>45255.08896411411</v>
       </c>
       <c r="S5">
-        <v>0.09720754809726763</v>
+        <v>0.09248797987466062</v>
       </c>
       <c r="T5">
-        <v>0.09720754809726763</v>
+        <v>0.09248797987466063</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>96.105924655846</v>
+        <v>96.12952900000001</v>
       </c>
       <c r="H6">
-        <v>96.105924655846</v>
+        <v>288.388587</v>
       </c>
       <c r="I6">
-        <v>0.193506059874269</v>
+        <v>0.1868692395998147</v>
       </c>
       <c r="J6">
-        <v>0.193506059874269</v>
+        <v>0.1868692395998147</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N6">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O6">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P6">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q6">
-        <v>4249.461748372474</v>
+        <v>4573.743335541603</v>
       </c>
       <c r="R6">
-        <v>4249.461748372474</v>
+        <v>41163.69001987443</v>
       </c>
       <c r="S6">
-        <v>0.0841621152286426</v>
+        <v>0.084126373879054</v>
       </c>
       <c r="T6">
-        <v>0.0841621152286426</v>
+        <v>0.08412637387905403</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>96.105924655846</v>
+        <v>96.12952900000001</v>
       </c>
       <c r="H7">
-        <v>96.105924655846</v>
+        <v>288.388587</v>
       </c>
       <c r="I7">
-        <v>0.193506059874269</v>
+        <v>0.1868692395998147</v>
       </c>
       <c r="J7">
-        <v>0.193506059874269</v>
+        <v>0.1868692395998147</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N7">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O7">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P7">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q7">
-        <v>941.8947049549686</v>
+        <v>944.9267062768197</v>
       </c>
       <c r="R7">
-        <v>941.8947049549686</v>
+        <v>8504.340356491377</v>
       </c>
       <c r="S7">
-        <v>0.01865456271539076</v>
+        <v>0.01738034943124624</v>
       </c>
       <c r="T7">
-        <v>0.01865456271539076</v>
+        <v>0.01738034943124624</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>96.105924655846</v>
+        <v>96.12952900000001</v>
       </c>
       <c r="H8">
-        <v>96.105924655846</v>
+        <v>288.388587</v>
       </c>
       <c r="I8">
-        <v>0.193506059874269</v>
+        <v>0.1868692395998147</v>
       </c>
       <c r="J8">
-        <v>0.193506059874269</v>
+        <v>0.1868692395998147</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N8">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O8">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P8">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q8">
-        <v>1005.503903814868</v>
+        <v>1051.047970564256</v>
       </c>
       <c r="R8">
-        <v>1005.503903814868</v>
+        <v>9459.431735078306</v>
       </c>
       <c r="S8">
-        <v>0.01991436573070178</v>
+        <v>0.01933227294356673</v>
       </c>
       <c r="T8">
-        <v>0.01991436573070178</v>
+        <v>0.01933227294356673</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>96.105924655846</v>
+        <v>96.12952900000001</v>
       </c>
       <c r="H9">
-        <v>96.105924655846</v>
+        <v>288.388587</v>
       </c>
       <c r="I9">
-        <v>0.193506059874269</v>
+        <v>0.1868692395998147</v>
       </c>
       <c r="J9">
-        <v>0.193506059874269</v>
+        <v>0.1868692395998147</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.1832287373793</v>
+        <v>37.34441866666666</v>
       </c>
       <c r="N9">
-        <v>37.1832287373793</v>
+        <v>112.033256</v>
       </c>
       <c r="O9">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="P9">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="Q9">
-        <v>3573.528579495663</v>
+        <v>3589.901377205475</v>
       </c>
       <c r="R9">
-        <v>3573.528579495663</v>
+        <v>32309.11239484928</v>
       </c>
       <c r="S9">
-        <v>0.07077501619953389</v>
+        <v>0.0660302433459477</v>
       </c>
       <c r="T9">
-        <v>0.07077501619953389</v>
+        <v>0.06603024334594773</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>140.797524662148</v>
+        <v>155.8267033333333</v>
       </c>
       <c r="H10">
-        <v>140.797524662148</v>
+        <v>467.48011</v>
       </c>
       <c r="I10">
-        <v>0.2834910993779736</v>
+        <v>0.3029164697274851</v>
       </c>
       <c r="J10">
-        <v>0.2834910993779736</v>
+        <v>0.3029164697274851</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N10">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O10">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P10">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q10">
-        <v>6225.565150742591</v>
+        <v>7414.073004250876</v>
       </c>
       <c r="R10">
-        <v>6225.565150742591</v>
+        <v>66726.65703825789</v>
       </c>
       <c r="S10">
-        <v>0.1232995524152895</v>
+        <v>0.136369496879158</v>
       </c>
       <c r="T10">
-        <v>0.1232995524152895</v>
+        <v>0.136369496879158</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>140.797524662148</v>
+        <v>155.8267033333333</v>
       </c>
       <c r="H11">
-        <v>140.797524662148</v>
+        <v>467.48011</v>
       </c>
       <c r="I11">
-        <v>0.2834910993779736</v>
+        <v>0.3029164697274851</v>
       </c>
       <c r="J11">
-        <v>0.2834910993779736</v>
+        <v>0.3029164697274851</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N11">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O11">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P11">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q11">
-        <v>1379.898725546229</v>
+        <v>1531.733433654312</v>
       </c>
       <c r="R11">
-        <v>1379.898725546229</v>
+        <v>13785.60090288881</v>
       </c>
       <c r="S11">
-        <v>0.0273293895603974</v>
+        <v>0.02817367964689056</v>
       </c>
       <c r="T11">
-        <v>0.0273293895603974</v>
+        <v>0.02817367964689057</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>140.797524662148</v>
+        <v>155.8267033333333</v>
       </c>
       <c r="H12">
-        <v>140.797524662148</v>
+        <v>467.48011</v>
       </c>
       <c r="I12">
-        <v>0.2834910993779736</v>
+        <v>0.3029164697274851</v>
       </c>
       <c r="J12">
-        <v>0.2834910993779736</v>
+        <v>0.3029164697274851</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N12">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O12">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P12">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q12">
-        <v>1473.087753978009</v>
+        <v>1703.756816474347</v>
       </c>
       <c r="R12">
-        <v>1473.087753978009</v>
+        <v>15333.81134826912</v>
       </c>
       <c r="S12">
-        <v>0.02917503171776581</v>
+        <v>0.03133776262168306</v>
       </c>
       <c r="T12">
-        <v>0.02917503171776581</v>
+        <v>0.03133776262168307</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>140.797524662148</v>
+        <v>155.8267033333333</v>
       </c>
       <c r="H13">
-        <v>140.797524662148</v>
+        <v>467.48011</v>
       </c>
       <c r="I13">
-        <v>0.2834910993779736</v>
+        <v>0.3029164697274851</v>
       </c>
       <c r="J13">
-        <v>0.2834910993779736</v>
+        <v>0.3029164697274851</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>37.1832287373793</v>
+        <v>37.34441866666666</v>
       </c>
       <c r="N13">
-        <v>37.1832287373793</v>
+        <v>112.033256</v>
       </c>
       <c r="O13">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="P13">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="Q13">
-        <v>5235.306565169452</v>
+        <v>5819.257648726461</v>
       </c>
       <c r="R13">
-        <v>5235.306565169452</v>
+        <v>52373.31883853815</v>
       </c>
       <c r="S13">
-        <v>0.1036871256845209</v>
+        <v>0.1070355305797535</v>
       </c>
       <c r="T13">
-        <v>0.1036871256845209</v>
+        <v>0.1070355305797535</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>127.753584350593</v>
+        <v>127.817347</v>
       </c>
       <c r="H14">
-        <v>127.753584350593</v>
+        <v>383.452041</v>
       </c>
       <c r="I14">
-        <v>0.2572275625152582</v>
+        <v>0.2484681938008419</v>
       </c>
       <c r="J14">
-        <v>0.2572275625152582</v>
+        <v>0.248468193800842</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N14">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O14">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P14">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q14">
-        <v>5648.808560547972</v>
+        <v>6081.416866276943</v>
       </c>
       <c r="R14">
-        <v>5648.808560547972</v>
+        <v>54732.75179649248</v>
       </c>
       <c r="S14">
-        <v>0.1118766811254304</v>
+        <v>0.1118575117740438</v>
       </c>
       <c r="T14">
-        <v>0.1118766811254304</v>
+        <v>0.1118575117740438</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>127.753584350593</v>
+        <v>127.817347</v>
       </c>
       <c r="H15">
-        <v>127.753584350593</v>
+        <v>383.452041</v>
       </c>
       <c r="I15">
-        <v>0.2572275625152582</v>
+        <v>0.2484681938008419</v>
       </c>
       <c r="J15">
-        <v>0.2572275625152582</v>
+        <v>0.248468193800842</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N15">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O15">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P15">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q15">
-        <v>1252.060422598743</v>
+        <v>1256.409200816445</v>
       </c>
       <c r="R15">
-        <v>1252.060422598743</v>
+        <v>11307.68280734801</v>
       </c>
       <c r="S15">
-        <v>0.02479750608423218</v>
+        <v>0.02310954997225518</v>
       </c>
       <c r="T15">
-        <v>0.02479750608423218</v>
+        <v>0.02310954997225518</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>127.753584350593</v>
+        <v>127.817347</v>
       </c>
       <c r="H16">
-        <v>127.753584350593</v>
+        <v>383.452041</v>
       </c>
       <c r="I16">
-        <v>0.2572275625152582</v>
+        <v>0.2484681938008419</v>
       </c>
       <c r="J16">
-        <v>0.2572275625152582</v>
+        <v>0.248468193800842</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N16">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O16">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P16">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q16">
-        <v>1336.616116549162</v>
+        <v>1397.511925469408</v>
       </c>
       <c r="R16">
-        <v>1336.616116549162</v>
+        <v>12577.60732922467</v>
       </c>
       <c r="S16">
-        <v>0.0264721619533475</v>
+        <v>0.02570489905475953</v>
       </c>
       <c r="T16">
-        <v>0.0264721619533475</v>
+        <v>0.02570489905475954</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>127.753584350593</v>
+        <v>127.817347</v>
       </c>
       <c r="H17">
-        <v>127.753584350593</v>
+        <v>383.452041</v>
       </c>
       <c r="I17">
-        <v>0.2572275625152582</v>
+        <v>0.2484681938008419</v>
       </c>
       <c r="J17">
-        <v>0.2572275625152582</v>
+        <v>0.248468193800842</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>37.1832287373793</v>
+        <v>37.34441866666666</v>
       </c>
       <c r="N17">
-        <v>37.1832287373793</v>
+        <v>112.033256</v>
       </c>
       <c r="O17">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="P17">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="Q17">
-        <v>4750.290748928181</v>
+        <v>4773.26451923061</v>
       </c>
       <c r="R17">
-        <v>4750.290748928181</v>
+        <v>42959.38067307549</v>
       </c>
       <c r="S17">
-        <v>0.0940812133522482</v>
+        <v>0.08779623299978344</v>
       </c>
       <c r="T17">
-        <v>0.0940812133522482</v>
+        <v>0.08779623299978345</v>
       </c>
     </row>
   </sheetData>
